--- a/Docs/Testing (TES)/Test_Cases/TS_User.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_User.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>N</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>ver on 28.11.2013</t>
   </si>
   <si>
     <t>6. Pass</t>
@@ -414,17 +417,17 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B9" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="F9" activeCellId="1" pane="topLeft" sqref="A11:A18 F9"/>
+      <selection activeCell="F9" activeCellId="1" pane="topLeft" sqref="I3:I18 F9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.71372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.0941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.71372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.74117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.878431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.121568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.3450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.74901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -695,21 +698,21 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A14" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11:A18"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B17" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="I3" activeCellId="0" pane="topLeft" sqref="I3:I18"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.321568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3960784313725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.756862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.71372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.643137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4745098039216"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.8313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.74901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -759,7 +762,9 @@
         <v>60</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
@@ -779,7 +784,9 @@
         <v>60</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
@@ -799,7 +806,9 @@
         <v>60</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
@@ -819,7 +828,9 @@
         <v>60</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
@@ -839,7 +850,9 @@
         <v>60</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
@@ -857,6 +870,9 @@
       <c r="G7" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
@@ -869,15 +885,18 @@
         <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="82.05" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>27</v>
@@ -886,18 +905,24 @@
         <v>58</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="243.45" outlineLevel="0" r="10">
+      <c r="I9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="243.45" outlineLevel="0" r="10">
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="82.05" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
@@ -910,10 +935,13 @@
         <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="12">
@@ -932,6 +960,9 @@
       <c r="G12" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="55.2" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
@@ -944,10 +975,13 @@
         <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="55.2" outlineLevel="0" r="14">
@@ -961,10 +995,13 @@
         <v>58</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="41.75" outlineLevel="0" r="15">
@@ -978,10 +1015,13 @@
         <v>58</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="41.75" outlineLevel="0" r="16">
@@ -995,10 +1035,13 @@
         <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="17">
@@ -1017,6 +1060,9 @@
       <c r="G17" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="I17" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="55.2" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
@@ -1029,10 +1075,13 @@
         <v>58</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1054,11 +1103,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A11:A18 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="I3:I18 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.71372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.74901960784314"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
